--- a/data/trans_dic/P78_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P78_2023-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>73,36; 87,94</t>
+          <t>74,75; 88,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>76,69; 90,21</t>
+          <t>77,59; 90,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>78,33; 87,69</t>
+          <t>77,76; 87,63</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>63,27; 86,74</t>
+          <t>63,01; 87,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>72,05; 85,09</t>
+          <t>70,69; 84,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>71,48; 83,55</t>
+          <t>71,72; 83,44</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>63,38; 89,98</t>
+          <t>64,9; 90,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>81,93; 90,67</t>
+          <t>82,68; 90,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>81,28; 89,61</t>
+          <t>81,11; 89,17</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>37,22; 68,91</t>
+          <t>36,19; 66,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>79,02; 87,0</t>
+          <t>79,31; 87,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>74,23; 82,62</t>
+          <t>74,43; 82,85</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>38,69; 78,61</t>
+          <t>37,56; 78,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>46,72; 56,58</t>
+          <t>46,84; 56,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>47,48; 57,37</t>
+          <t>47,45; 57,08</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>27,13; 64,02</t>
+          <t>27,69; 65,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,75; 9,81</t>
+          <t>3,54; 9,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,55; 11,17</t>
+          <t>4,21; 11,09</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>70,26; 81,19</t>
+          <t>70,46; 80,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>42,09; 58,32</t>
+          <t>42,58; 58,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>49,88; 63,0</t>
+          <t>49,45; 62,85</t>
         </is>
       </c>
     </row>
